--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571A1DA-9395-427A-A3F7-4BC26BC978E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D20BBA8-5503-47E0-8161-2EA9EA5B413C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t xml:space="preserve">Yes, see how to do in place and 3 solutions given by leetcode </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-nested-list-iterator/</t>
+  </si>
+  <si>
+    <t>Yes, hard to understand the question</t>
   </si>
 </sst>
 </file>
@@ -617,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,6 +958,30 @@
       </c>
       <c r="H13" s="3"/>
     </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B14" s="3">
+        <v>341</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{6DF03CED-AFF8-4B1F-920A-0FE3BD5AF302}"/>
@@ -966,8 +996,9 @@
     <hyperlink ref="D11" r:id="rId10" xr:uid="{0F9EB9F1-E3B3-454B-B991-E198FEAAE1AF}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{CAA62DF1-A880-4D0D-887B-5218B7C932A8}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{6AB5194F-FD8D-4B9A-A6A8-9AD8079D2DFE}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{06E3D70C-FA8B-412E-A094-3F9AB4D5FA8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D20BBA8-5503-47E0-8161-2EA9EA5B413C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97632A4-B1EA-4292-AFA4-6D9FA730E0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -196,6 +196,105 @@
   </si>
   <si>
     <t>Yes, hard to understand the question</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>yes very imp, new data structure learned</t>
+  </si>
+  <si>
+    <t>graph, trrie data structure</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>recursion, subproblems</t>
+  </si>
+  <si>
+    <t>Yes , see how I break down this problem into subproblems and how I handled edge condition of if s==""</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t>recursion , iterative</t>
+  </si>
+  <si>
+    <t>Yes , there are two approach 1 is recursive and other is iterative do both</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/submissions/</t>
+  </si>
+  <si>
+    <t>Yes , though I got the ans in 1 st attempt but need to check the approach oce</t>
+  </si>
+  <si>
+    <t>Attemps to solve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursion , lowest common ansistor and memorization dict </t>
+  </si>
+  <si>
+    <t>Methods to solve</t>
+  </si>
+  <si>
+    <t>2 , dict and true false In recursion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
+  </si>
+  <si>
+    <t>modified bfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/increasing-triplet-subsequence/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BruteForce,O(n) new approach </t>
+  </si>
+  <si>
+    <t>Yes , see both ways , efficient way is nice</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, see the appoach </t>
+  </si>
+  <si>
+    <t>1 , push val pop top two val if operator and comput b op a and insert back to stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search/</t>
+  </si>
+  <si>
+    <t>modified dfs</t>
+  </si>
+  <si>
+    <t>yes, see how to implemnt this ans in a better way - backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/surrounded-regions/</t>
+  </si>
+  <si>
+    <t>1 , start dfs from all corners if 'O" put 'S' if 'O' else return - in 2nd pass change all S to O and all O to X</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dictionary </t>
+  </si>
+  <si>
+    <t>yes , 1 more time</t>
+  </si>
+  <si>
+    <t>1, store key as a original node reference and val as a newly created node and val should be same. Simple triversal with new link list creaton with hashing</t>
   </si>
 </sst>
 </file>
@@ -623,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,13 +735,15 @@
     <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="92.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -667,8 +768,14 @@
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44010</v>
       </c>
@@ -691,8 +798,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44030</v>
       </c>
@@ -715,8 +824,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44030</v>
       </c>
@@ -739,8 +850,10 @@
         <v>16</v>
       </c>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44030</v>
       </c>
@@ -763,8 +876,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44030</v>
       </c>
@@ -787,8 +902,10 @@
         <v>23</v>
       </c>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44031</v>
       </c>
@@ -811,8 +928,10 @@
         <v>26</v>
       </c>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44031</v>
       </c>
@@ -835,8 +954,10 @@
         <v>29</v>
       </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44036</v>
       </c>
@@ -859,8 +980,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44039</v>
       </c>
@@ -883,8 +1006,10 @@
         <v>34</v>
       </c>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44040</v>
       </c>
@@ -909,8 +1034,10 @@
       <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44051</v>
       </c>
@@ -933,8 +1060,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44052</v>
       </c>
@@ -957,8 +1086,10 @@
         <v>44</v>
       </c>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44057</v>
       </c>
@@ -981,6 +1112,294 @@
         <v>46</v>
       </c>
       <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B15" s="3">
+        <v>208</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B16" s="3">
+        <v>131</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B17" s="3">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B18" s="3">
+        <v>236</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B19" s="3">
+        <v>116</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B20" s="3">
+        <v>334</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B21" s="3">
+        <v>150</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B22" s="3">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B23" s="3">
+        <v>130</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B24" s="3">
+        <v>138</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -997,8 +1416,18 @@
     <hyperlink ref="D12" r:id="rId11" xr:uid="{CAA62DF1-A880-4D0D-887B-5218B7C932A8}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{6AB5194F-FD8D-4B9A-A6A8-9AD8079D2DFE}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{06E3D70C-FA8B-412E-A094-3F9AB4D5FA8A}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{F379293D-CD9F-4917-8CA6-D76F0337556D}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{B7FE5534-8386-4D74-A240-7870ACC2FA83}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{8EDB2E91-B967-4B89-9799-92A205B4705B}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{B6C31C01-AC4A-4150-9DE0-7DFF20F3EE84}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{0F0214CD-CE21-40E5-AACA-F0403FD2E6DD}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{A17757CA-6D71-4C5E-B7A1-C1A690CD24EA}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{BD8B4F81-C9F2-4603-A0C2-A114FF7B8FEC}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{F9B9B57E-5E7E-4F8C-A2B9-D062DB7C0230}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{47B5BF2A-D61E-4957-B075-853C473034BD}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{321D2029-092F-4687-BDE2-EF0C13AF74A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E97632A4-B1EA-4292-AFA4-6D9FA730E0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F6BC9-BFB7-4C8F-A9AA-511DE83E85F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -295,6 +295,30 @@
   </si>
   <si>
     <t>1, store key as a original node reference and val as a newly created node and val should be same. Simple triversal with new link list creaton with hashing</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fraction-to-recurring-decimal/submissions/</t>
+  </si>
+  <si>
+    <t>dictionary , math logic</t>
+  </si>
+  <si>
+    <t>yes , this time I see the solution first then implmented</t>
+  </si>
+  <si>
+    <t>1,simple math , handle for negative numbers in python, use dict for repetative remander for bracket insertion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change/</t>
+  </si>
+  <si>
+    <t>dp (bottom up), recursion</t>
+  </si>
+  <si>
+    <t>yes, see recusion and dynamic approach</t>
+  </si>
+  <si>
+    <t>2, recusrsion (take or don’t take approach-substract target and update global min once target is 0)and then dynamic approach  (https://www.youtube.com/watch?v=jgiZlGzXMBw)</t>
   </si>
 </sst>
 </file>
@@ -722,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,6 +1423,66 @@
       </c>
       <c r="J24" s="3" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B25" s="3">
+        <v>166</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B26" s="3">
+        <v>322</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1426,8 +1510,10 @@
     <hyperlink ref="D22" r:id="rId21" xr:uid="{F9B9B57E-5E7E-4F8C-A2B9-D062DB7C0230}"/>
     <hyperlink ref="D23" r:id="rId22" xr:uid="{47B5BF2A-D61E-4957-B075-853C473034BD}"/>
     <hyperlink ref="D24" r:id="rId23" xr:uid="{321D2029-092F-4687-BDE2-EF0C13AF74A9}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{85DFD257-2749-4D9B-B9A5-F19352F5926B}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{E44B43C1-A0AB-4D2C-A375-92CD40B36B41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F6BC9-BFB7-4C8F-A9AA-511DE83E85F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB1770-4A8C-424A-BC12-666D0E8F2413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -319,6 +319,42 @@
   </si>
   <si>
     <t>2, recusrsion (take or don’t take approach-substract target and update global min once target is 0)and then dynamic approach  (https://www.youtube.com/watch?v=jgiZlGzXMBw)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/basic-calculator-ii/</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, remove spaces first </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>simple hash , set</t>
+  </si>
+  <si>
+    <t>yes , just go once very easy approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,trick check if n-1 not in set </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>recursion, matrix</t>
+  </si>
+  <si>
+    <t>yes , backtracking</t>
+  </si>
+  <si>
+    <t>2 , recursion and backtracking (TLE) , with memorization (memorize the current cell ans , don’t remember the child cell ans as it will depend on parent's value)</t>
   </si>
 </sst>
 </file>
@@ -357,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +409,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -431,6 +479,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,6 +498,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -746,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,6 +1549,99 @@
       <c r="J26" s="3" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B27" s="3">
+        <v>227</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>44066</v>
+      </c>
+      <c r="B28" s="9">
+        <v>128</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>44066</v>
+      </c>
+      <c r="B29" s="9">
+        <v>329</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1512,8 +1670,11 @@
     <hyperlink ref="D24" r:id="rId23" xr:uid="{321D2029-092F-4687-BDE2-EF0C13AF74A9}"/>
     <hyperlink ref="D25" r:id="rId24" xr:uid="{85DFD257-2749-4D9B-B9A5-F19352F5926B}"/>
     <hyperlink ref="D26" r:id="rId25" xr:uid="{E44B43C1-A0AB-4D2C-A375-92CD40B36B41}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{22E2DDC6-F095-404A-9D72-C48035848B26}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{CE26FC6E-914E-4874-93C4-1A4C909A1959}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{17D9D5BE-73A9-447F-9864-79D2D05FE3CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB1770-4A8C-424A-BC12-666D0E8F2413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8DD025-5EC3-4188-845E-5F1B9EA53DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>2 , recursion and backtracking (TLE) , with memorization (memorize the current cell ans , don’t remember the child cell ans as it will depend on parent's value)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
+  </si>
+  <si>
+    <t>brute force(TLE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes for sure , need more practice of heapq logic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 , brute force (TLE) , using deque -&gt; store index inside dequeu maintain the max element index  ,pop the elemnt from the queu which is either not in range or smaller then current element , to get the max value in current window we will append first elemtent of the deque </t>
   </si>
 </sst>
 </file>
@@ -813,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,6 +1650,36 @@
       </c>
       <c r="J29" s="9" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>44068</v>
+      </c>
+      <c r="B30" s="9">
+        <v>239</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1673,8 +1715,9 @@
     <hyperlink ref="D27" r:id="rId26" xr:uid="{22E2DDC6-F095-404A-9D72-C48035848B26}"/>
     <hyperlink ref="D28" r:id="rId27" xr:uid="{CE26FC6E-914E-4874-93C4-1A4C909A1959}"/>
     <hyperlink ref="D29" r:id="rId28" xr:uid="{17D9D5BE-73A9-447F-9864-79D2D05FE3CB}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{F9DFFB50-5043-4395-878A-97A343D1C7B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8DD025-5EC3-4188-845E-5F1B9EA53DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2B7BF-65E4-4FC2-B5DD-610372E23701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -368,12 +368,45 @@
   <si>
     <t xml:space="preserve">2 , brute force (TLE) , using deque -&gt; store index inside dequeu maintain the max element index  ,pop the elemnt from the queu which is either not in range or smaller then current element , to get the max value in current window we will append first elemtent of the deque </t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
+  </si>
+  <si>
+    <t>yes , only one time</t>
+  </si>
+  <si>
+    <t>1 , simple recusion with some special case</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-of-smaller-numbers-after-self/</t>
+  </si>
+  <si>
+    <t>bisect, binary search</t>
+  </si>
+  <si>
+    <t>yes, only once</t>
+  </si>
+  <si>
+    <t>1, triverse from end to start , maintain the list of visited elemnt in sorted order so that we can apply binary search to get the number lower then current element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/discuss/interview-question/794840/Google-or-Software-Engineer-Internship-2021-or-Online-test-questions-(OA)</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>1, use concept of xor , instead of xoring each element multiple time calculate xor or all xor value and then calculate xor of every elemnt only once this will reduce time complexity from O(n**2) to O(n)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +433,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,7 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -500,7 +546,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1171,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44040</v>
       </c>
@@ -1384,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44059</v>
       </c>
@@ -1442,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44059</v>
       </c>
@@ -1472,7 +1533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44061</v>
       </c>
@@ -1682,8 +1743,93 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="12"/>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44069</v>
+      </c>
+      <c r="B31" s="13">
+        <v>404</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>44069</v>
+      </c>
+      <c r="B32" s="16">
+        <v>315</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1716,8 +1862,11 @@
     <hyperlink ref="D28" r:id="rId27" xr:uid="{CE26FC6E-914E-4874-93C4-1A4C909A1959}"/>
     <hyperlink ref="D29" r:id="rId28" xr:uid="{17D9D5BE-73A9-447F-9864-79D2D05FE3CB}"/>
     <hyperlink ref="D30" r:id="rId29" xr:uid="{F9DFFB50-5043-4395-878A-97A343D1C7B3}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{66C96818-B528-4CD4-88F2-B754DF3E3024}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{8D3E6301-D5F3-4831-836B-2F50473D0993}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{A74DCB3C-1B79-43CA-AC5D-EA6791D216E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2B7BF-65E4-4FC2-B5DD-610372E23701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB04E7-258D-4938-B45D-23D8EAE253A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -400,6 +400,36 @@
   </si>
   <si>
     <t>1, use concept of xor , instead of xoring each element multiple time calculate xor or all xor value and then calculate xor of every elemnt only once this will reduce time complexity from O(n**2) to O(n)</t>
+  </si>
+  <si>
+    <t>https://discuss.codechef.com/t/google-online-coding-challenge-internship-2021-cutoff-score-how-many-question-req/75163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotation - array logic for python </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 , in python to rotate an array left or right we can directly use formula     (cur + rotationVal%n)%n   both will give correct position </t>
+  </si>
+  <si>
+    <t>dfs , gcd</t>
+  </si>
+  <si>
+    <t>1 , learned how to get child: parent dict using recursion and how to avoid taking parent value as a child by mistake</t>
+  </si>
+  <si>
+    <t>yes , very good questions</t>
+  </si>
+  <si>
+    <t>Alphabetic ordering (Google Interview question)</t>
+  </si>
+  <si>
+    <t>just a flag</t>
+  </si>
+  <si>
+    <t>yes,once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, use a flag </t>
   </si>
 </sst>
 </file>
@@ -884,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,6 +1859,96 @@
       </c>
       <c r="J33" s="3" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>44071</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1865,8 +1985,10 @@
     <hyperlink ref="D31" r:id="rId30" xr:uid="{66C96818-B528-4CD4-88F2-B754DF3E3024}"/>
     <hyperlink ref="D32" r:id="rId31" xr:uid="{8D3E6301-D5F3-4831-836B-2F50473D0993}"/>
     <hyperlink ref="D33" r:id="rId32" xr:uid="{A74DCB3C-1B79-43CA-AC5D-EA6791D216E4}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{6D8595D4-8777-4C2A-ABE4-7CCA1D7E6B75}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{12307831-960D-4E2E-B085-5ECB21D2D363}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB04E7-258D-4938-B45D-23D8EAE253A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC328941-3F2F-48CF-9BD5-392950734AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
   <si>
     <t>Date</t>
   </si>
@@ -430,6 +430,21 @@
   </si>
   <si>
     <t xml:space="preserve">1, use a flag </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/</t>
+  </si>
+  <si>
+    <t>Two Pointer approach with dictionary</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>yes , greate intution</t>
+  </si>
+  <si>
+    <t>1, by optimal two pointer . Remember how we are making a decision when to increment left pointer and when to increase right pointer . Very good question of two pointer</t>
   </si>
 </sst>
 </file>
@@ -541,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -592,6 +607,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -914,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,6 +1967,36 @@
       </c>
       <c r="J36" s="6" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>44073</v>
+      </c>
+      <c r="B37" s="9">
+        <v>76</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="18">
+        <v>43926</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1987,8 +2035,9 @@
     <hyperlink ref="D33" r:id="rId32" xr:uid="{A74DCB3C-1B79-43CA-AC5D-EA6791D216E4}"/>
     <hyperlink ref="D34" r:id="rId33" xr:uid="{6D8595D4-8777-4C2A-ABE4-7CCA1D7E6B75}"/>
     <hyperlink ref="D35" r:id="rId34" xr:uid="{12307831-960D-4E2E-B085-5ECB21D2D363}"/>
+    <hyperlink ref="D37" r:id="rId35" xr:uid="{4EAE671C-030C-4AD6-AE64-677B413A81E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC328941-3F2F-48CF-9BD5-392950734AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DE18CC-A8EA-4994-9879-E60B4CEC36E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Placement Series" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
   <si>
     <t>Date</t>
   </si>
@@ -445,6 +446,15 @@
   </si>
   <si>
     <t>1, by optimal two pointer . Remember how we are making a decision when to increment left pointer and when to increase right pointer . Very good question of two pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t>Tortoise hare Algo , Cycle detection</t>
+  </si>
+  <si>
+    <t>3, sorting, dict , tortoise hare</t>
   </si>
 </sst>
 </file>
@@ -496,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -612,6 +628,12 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -932,10 +954,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,4 +2065,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8CA266-22C8-4470-A933-6BAFACC97916}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>44073</v>
+      </c>
+      <c r="B2" s="21">
+        <v>287</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DE18CC-A8EA-4994-9879-E60B4CEC36E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F3155-8B02-4664-AFF8-DA7FF1068746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F3155-8B02-4664-AFF8-DA7FF1068746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45D4DFB-6343-447D-B4C1-080C0D6FF199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -455,6 +455,27 @@
   </si>
   <si>
     <t>3, sorting, dict , tortoise hare</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/</t>
+  </si>
+  <si>
+    <t>Dutch national flag Algorithm</t>
+  </si>
+  <si>
+    <t>yes only 1 more time</t>
+  </si>
+  <si>
+    <t>sorting, 2 pass counting sort, dutch national flag algorithm</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-a-repeating-and-a-missing-number/</t>
+  </si>
+  <si>
+    <t>eq sum and product , xor method (need to implement)</t>
+  </si>
+  <si>
+    <t>equation. Xor</t>
   </si>
 </sst>
 </file>
@@ -572,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -631,9 +652,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -959,7 +989,7 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2072,26 +2102,28 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2124,38 +2156,90 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>44073</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="22">
         <v>287</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22">
+        <v>3</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>44074</v>
+      </c>
+      <c r="B3" s="22">
+        <v>75</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>44074</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{397E6175-C9A6-4842-8348-6E52819DA8B7}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{78CE589B-9262-4CC6-8F99-D3BA3FA8A4A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45D4DFB-6343-447D-B4C1-080C0D6FF199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95401143-2349-4BEE-BAA1-463B463D00B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
   <si>
     <t>Date</t>
   </si>
@@ -472,10 +472,34 @@
     <t>https://www.geeksforgeeks.org/find-a-repeating-and-a-missing-number/</t>
   </si>
   <si>
-    <t>eq sum and product , xor method (need to implement)</t>
-  </si>
-  <si>
-    <t>equation. Xor</t>
+    <t xml:space="preserve">equation. Xor </t>
+  </si>
+  <si>
+    <t>eq sum and product , xor method : remember how to get a first set bit x &amp; ~(x-1)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hVl2b3bLzBw&amp;list=PLgUwDviBIf0rPG3Ictpu74YWBQ1CaBkm2&amp;index=4</t>
+  </si>
+  <si>
+    <t>using insertion sort, gap algorithm</t>
+  </si>
+  <si>
+    <t>yes definitely</t>
+  </si>
+  <si>
+    <t>Insertion sort: start from end compare element and insert elemnt such that sorting still maintained. Time complexity O(n*m) . Gap algorithm time complexity O(log2(n+m)*log(n+m))</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>Kandane's algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">may be no </t>
+  </si>
+  <si>
+    <t>kandane's algorithm</t>
   </si>
 </sst>
 </file>
@@ -593,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -662,6 +686,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,7 +1031,7 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2102,10 +2144,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,7 +2161,7 @@
     <col min="7" max="7" width="23.85546875" style="20" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="20" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="61.85546875" style="20" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
@@ -2213,26 +2255,82 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>44074</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
       <c r="D4" s="23" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22">
+        <v>3</v>
+      </c>
       <c r="J4" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>44075</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>44075</v>
+      </c>
+      <c r="B6" s="28">
+        <v>53</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <v>1</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2240,6 +2338,8 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{397E6175-C9A6-4842-8348-6E52819DA8B7}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{78CE589B-9262-4CC6-8F99-D3BA3FA8A4A4}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{29BC0F81-5AE4-406B-AD15-F87867705DCA}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{A52B3F96-63F6-4198-A013-E5D6A5800E69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95401143-2349-4BEE-BAA1-463B463D00B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71AB34D-96A8-412B-BEAD-BA50C3687228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -500,6 +500,27 @@
   </si>
   <si>
     <t>kandane's algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/</t>
+  </si>
+  <si>
+    <t>overlapping condition</t>
+  </si>
+  <si>
+    <t>ovrlapping array condition</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/</t>
+  </si>
+  <si>
+    <t>matrix updation in place</t>
+  </si>
+  <si>
+    <t>yes 3 approches</t>
+  </si>
+  <si>
+    <t>3 ways, last optimized way is trickey need to handle matrix[0][0] as there is only one cell for first row and first col</t>
   </si>
 </sst>
 </file>
@@ -2144,10 +2165,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,6 +2354,62 @@
         <v>147</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>44076</v>
+      </c>
+      <c r="B7" s="22">
+        <v>56</v>
+      </c>
+      <c r="C7" s="22">
+        <v>3</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
+        <v>2</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>44076</v>
+      </c>
+      <c r="B8" s="22">
+        <v>73</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
+        <v>3</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -2340,6 +2417,8 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{78CE589B-9262-4CC6-8F99-D3BA3FA8A4A4}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{29BC0F81-5AE4-406B-AD15-F87867705DCA}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{A52B3F96-63F6-4198-A013-E5D6A5800E69}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{F4ACFA6B-24A0-49B4-9563-BE7C28F7DDD9}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{115DB9F3-008A-434E-87DA-62EB35AFFE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71AB34D-96A8-412B-BEAD-BA50C3687228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976450BC-F607-4818-8E5C-439ABB1D60CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -521,6 +521,18 @@
   </si>
   <si>
     <t>3 ways, last optimized way is trickey need to handle matrix[0][0] as there is only one cell for first row and first col</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/solution/</t>
+  </si>
+  <si>
+    <t>dp , factorial (brute force) , factorial method with little optimazation method</t>
+  </si>
+  <si>
+    <t>3rd apporach</t>
+  </si>
+  <si>
+    <t>3 ways , dp, factorial already know, factorial with little optimization  nCr = n-1C r-1 *( (n-r+1)/r) for each elemnt of column and n is the row number</t>
   </si>
 </sst>
 </file>
@@ -2165,10 +2177,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,6 +2422,34 @@
         <v>154</v>
       </c>
     </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>44077</v>
+      </c>
+      <c r="B9" s="28">
+        <v>118</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28">
+        <v>1</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -2419,6 +2459,7 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{A52B3F96-63F6-4198-A013-E5D6A5800E69}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{F4ACFA6B-24A0-49B4-9563-BE7C28F7DDD9}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{115DB9F3-008A-434E-87DA-62EB35AFFE19}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{ADC41C04-B286-4591-92B3-C61D2D1A883F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976450BC-F607-4818-8E5C-439ABB1D60CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D8121-D2AD-46A7-BAE5-14E8309F95EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -533,6 +533,18 @@
   </si>
   <si>
     <t>3 ways , dp, factorial already know, factorial with little optimization  nCr = n-1C r-1 *( (n-r+1)/r) for each elemnt of column and n is the row number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation/submissions/</t>
+  </si>
+  <si>
+    <t>N/A  sorting, and bisect</t>
+  </si>
+  <si>
+    <t>no (see logic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find a[i-1]&lt;a[i] if exist  swap a[i-1] with the number that is just greater then a[i-1] and sort elemnts on the right of pos i-1 </t>
   </si>
 </sst>
 </file>
@@ -2177,10 +2189,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,6 +2462,34 @@
         <v>158</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>44077</v>
+      </c>
+      <c r="B10" s="22">
+        <v>31</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -2460,6 +2500,7 @@
     <hyperlink ref="D7" r:id="rId6" xr:uid="{F4ACFA6B-24A0-49B4-9563-BE7C28F7DDD9}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{115DB9F3-008A-434E-87DA-62EB35AFFE19}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{ADC41C04-B286-4591-92B3-C61D2D1A883F}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{4AB6EA1E-1A88-4D2F-840E-306FF7E7309E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9D8121-D2AD-46A7-BAE5-14E8309F95EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA79B5D-4B5C-43EF-916C-B8B1DE58EE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -541,10 +541,34 @@
     <t>N/A  sorting, and bisect</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>no (see logic)</t>
   </si>
   <si>
     <t xml:space="preserve">find a[i-1]&lt;a[i] if exist  swap a[i-1] with the number that is just greater then a[i-1] and sort elemnts on the right of pos i-1 </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, treverse in the array :keep track of min elemnt till now and subtract cur eleemnt with the min and update the maxProfit </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/counting-inversions/</t>
+  </si>
+  <si>
+    <t>Insertion sort , enhanced merge sort</t>
+  </si>
+  <si>
+    <t>yes , enhnaced merge sort</t>
+  </si>
+  <si>
+    <t>use merge sort :  # icount = mid-i because all element in right are also greater</t>
   </si>
 </sst>
 </file>
@@ -2189,10 +2213,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,14 +2504,66 @@
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22">
         <v>1</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>44078</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22">
+        <v>1</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>44078</v>
+      </c>
+      <c r="B12" s="22">
+        <v>121</v>
+      </c>
+      <c r="C12" s="22">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2501,6 +2577,8 @@
     <hyperlink ref="D8" r:id="rId7" xr:uid="{115DB9F3-008A-434E-87DA-62EB35AFFE19}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{ADC41C04-B286-4591-92B3-C61D2D1A883F}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{4AB6EA1E-1A88-4D2F-840E-306FF7E7309E}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{D28C0C21-F5E6-44AA-AFD2-F36BA427487D}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{54CB22D4-B5FB-4415-973F-0C4AA56EB9F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA79B5D-4B5C-43EF-916C-B8B1DE58EE2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8CE33-5803-43BF-B59C-CB5E25F337D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8CE33-5803-43BF-B59C-CB5E25F337D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F662A64-9684-4AA2-BD6C-26327BBA2B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -569,6 +569,27 @@
   </si>
   <si>
     <t>use merge sort :  # icount = mid-i because all element in right are also greater</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix </t>
+  </si>
+  <si>
+    <t>1, transpose and reverse each row</t>
+  </si>
+  <si>
+    <t>https: // leetcode.com/problems/search-a-2d-matrix/</t>
+  </si>
+  <si>
+    <t>binary search , two pointer</t>
+  </si>
+  <si>
+    <t>no, just see these 3 approaches</t>
+  </si>
+  <si>
+    <t>two pointer, index based , row col (binary search)  - use r = len(arr) and while(l&lt;r) and l=mid+1  and r=mid</t>
   </si>
 </sst>
 </file>
@@ -2213,10 +2234,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,6 +2587,62 @@
         <v>166</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>44079</v>
+      </c>
+      <c r="B13" s="22">
+        <v>48</v>
+      </c>
+      <c r="C13" s="22">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>44080</v>
+      </c>
+      <c r="B14" s="22">
+        <v>74</v>
+      </c>
+      <c r="C14" s="22">
+        <v>4</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22">
+        <v>1</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -2579,6 +2656,7 @@
     <hyperlink ref="D10" r:id="rId9" xr:uid="{4AB6EA1E-1A88-4D2F-840E-306FF7E7309E}"/>
     <hyperlink ref="D12" r:id="rId10" xr:uid="{D28C0C21-F5E6-44AA-AFD2-F36BA427487D}"/>
     <hyperlink ref="D11" r:id="rId11" xr:uid="{54CB22D4-B5FB-4415-973F-0C4AA56EB9F9}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{1979A946-820E-472A-9723-42C2F53B27E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F662A64-9684-4AA2-BD6C-26327BBA2B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8E33D-B061-4532-911F-65B6EA22D7DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -590,6 +590,15 @@
   </si>
   <si>
     <t>two pointer, index based , row col (binary search)  - use r = len(arr) and while(l&lt;r) and l=mid+1  and r=mid</t>
+  </si>
+  <si>
+    <t>power()  memorization</t>
+  </si>
+  <si>
+    <t>yes , see the trickey -ve pow - 2 methods</t>
+  </si>
+  <si>
+    <t>memorization of pow(x,n//2)  or pow(x*x,n//2)*x for odd and pow(x*x,n//2) for even method</t>
   </si>
 </sst>
 </file>
@@ -2234,10 +2243,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,6 +2652,34 @@
         <v>177</v>
       </c>
     </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>44080</v>
+      </c>
+      <c r="B15" s="22">
+        <v>50</v>
+      </c>
+      <c r="C15" s="22">
+        <v>2</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22">
+        <v>3</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -2657,6 +2694,7 @@
     <hyperlink ref="D12" r:id="rId10" xr:uid="{D28C0C21-F5E6-44AA-AFD2-F36BA427487D}"/>
     <hyperlink ref="D11" r:id="rId11" xr:uid="{54CB22D4-B5FB-4415-973F-0C4AA56EB9F9}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{1979A946-820E-472A-9723-42C2F53B27E1}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{7E836297-90F1-433E-A440-F0EF824D856F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8E33D-B061-4532-911F-65B6EA22D7DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36EC780-95AE-4134-B1F6-6DBD983D27E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -599,6 +599,24 @@
   </si>
   <si>
     <t>memorization of pow(x,n//2)  or pow(x*x,n//2)*x for odd and pow(x*x,n//2) for even method</t>
+  </si>
+  <si>
+    <t>Boyer-Moore Voting Algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/submissions/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes , this algorithm once </t>
+  </si>
+  <si>
+    <t>hashmap, sorting (middle one is ans), Boyer-Moore Voting Algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element-ii/submissions/</t>
+  </si>
+  <si>
+    <t>Boyer-Moore Voting Algorithm - enhanced</t>
   </si>
 </sst>
 </file>
@@ -2243,10 +2261,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,6 +2698,60 @@
         <v>180</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>44080</v>
+      </c>
+      <c r="B16" s="22">
+        <v>169</v>
+      </c>
+      <c r="C16" s="22">
+        <v>4</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22">
+        <v>3</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>44081</v>
+      </c>
+      <c r="B17" s="22">
+        <v>229</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22">
+        <v>3</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -2695,6 +2767,8 @@
     <hyperlink ref="D11" r:id="rId11" xr:uid="{54CB22D4-B5FB-4415-973F-0C4AA56EB9F9}"/>
     <hyperlink ref="D13" r:id="rId12" xr:uid="{1979A946-820E-472A-9723-42C2F53B27E1}"/>
     <hyperlink ref="D15" r:id="rId13" xr:uid="{7E836297-90F1-433E-A440-F0EF824D856F}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{A0B0EEC1-2F1E-4AA0-AC9E-AD15A65F95B5}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{700A667E-6CD7-4F51-B8DE-50E1B549E888}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36EC780-95AE-4134-B1F6-6DBD983D27E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD625FCA-3954-4A14-90C4-0DAFB0889FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="192">
   <si>
     <t>Date</t>
   </si>
@@ -617,6 +617,22 @@
   </si>
   <si>
     <t>Boyer-Moore Voting Algorithm - enhanced</t>
+  </si>
+  <si>
+    <t>recursion , 2 D array , 1d array approach (Dynamic programming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # number of path to reach a paticular cell is equal to the sum of
+ # number of unique path to react top and left cell  - we can optimize space using 1 d array also</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs/</t>
+  </si>
+  <si>
+    <t>brute force</t>
+  </si>
+  <si>
+    <t>brute force (TLE)  , optimised modified inversion count (merge sort)</t>
   </si>
 </sst>
 </file>
@@ -2261,10 +2277,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,6 +2768,62 @@
         <v>181</v>
       </c>
     </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>44081</v>
+      </c>
+      <c r="B18" s="22">
+        <v>62</v>
+      </c>
+      <c r="C18" s="22">
+        <v>6</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22">
+        <v>3</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>44084</v>
+      </c>
+      <c r="B19" s="25">
+        <v>493</v>
+      </c>
+      <c r="C19" s="25">
+        <v>7</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25">
+        <v>3</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -2769,6 +2841,8 @@
     <hyperlink ref="D15" r:id="rId13" xr:uid="{7E836297-90F1-433E-A440-F0EF824D856F}"/>
     <hyperlink ref="D16" r:id="rId14" xr:uid="{A0B0EEC1-2F1E-4AA0-AC9E-AD15A65F95B5}"/>
     <hyperlink ref="D17" r:id="rId15" xr:uid="{700A667E-6CD7-4F51-B8DE-50E1B549E888}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{4311EB59-FC68-4873-B270-DC52EA52E001}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{B1DC559A-5FC1-42CD-8AC2-76C41B948E79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD625FCA-3954-4A14-90C4-0DAFB0889FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859754C9-D6D8-4541-8197-DCB12A7C22F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -2279,8 +2279,8 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859754C9-D6D8-4541-8197-DCB12A7C22F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF4DD5-A475-4581-904A-97F4FC4FC21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
   <si>
     <t>Date</t>
   </si>
@@ -629,10 +629,22 @@
     <t>https://leetcode.com/problems/reverse-pairs/</t>
   </si>
   <si>
-    <t>brute force</t>
-  </si>
-  <si>
     <t>brute force (TLE)  , optimised modified inversion count (merge sort)</t>
+  </si>
+  <si>
+    <t>brute force, using merge sort inversion count logic</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/regular-expression-matching/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using dp </t>
+  </si>
+  <si>
+    <t>yes v imp</t>
+  </si>
+  <si>
+    <t>dp ( see how * pattern is matching here) - see for corner cases</t>
   </si>
 </sst>
 </file>
@@ -2277,10 +2289,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2822,7 @@
         <v>189</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25" t="s">
@@ -2821,7 +2833,35 @@
         <v>3</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>44087</v>
+      </c>
+      <c r="B20" s="25">
+        <v>10</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25">
+        <v>1</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2843,6 +2883,7 @@
     <hyperlink ref="D17" r:id="rId15" xr:uid="{700A667E-6CD7-4F51-B8DE-50E1B549E888}"/>
     <hyperlink ref="D18" r:id="rId16" xr:uid="{4311EB59-FC68-4873-B270-DC52EA52E001}"/>
     <hyperlink ref="D19" r:id="rId17" xr:uid="{B1DC559A-5FC1-42CD-8AC2-76C41B948E79}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{62B445FA-D448-4003-8287-F4E89C4285F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF4DD5-A475-4581-904A-97F4FC4FC21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEBF527-3FFE-4BB1-8739-F271562DFC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
   <si>
     <t>Date</t>
   </si>
@@ -645,6 +645,16 @@
   </si>
   <si>
     <t>dp ( see how * pattern is matching here) - see for corner cases</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-square/</t>
+  </si>
+  <si>
+    <t>brute force recursion, check for each cell if current cell is square if yes then expend cell digonally and update max_area ,  3  optimized way:  # try to visualize that max size of sqr will be left min(left,mid,top) value of computed matrix
+                    # ie (i-1,j) , (i,j+1), (i-1,j-1) as all of them representing max size square up to (i,j)</t>
+  </si>
+  <si>
+    <t>yes, 3 ways first recurion , 2nd dp (n^3),3rd(n^2) dp with logic min(left,mid,right) ie (I,j-1),(i-1,j-1),(i-1,j) min value +1 will be the cur val if matrix[i][j]!='0'</t>
   </si>
 </sst>
 </file>
@@ -1174,10 +1184,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,6 +2249,36 @@
       </c>
       <c r="J37" s="9" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B38" s="3">
+        <v>221</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2278,9 +2318,10 @@
     <hyperlink ref="D34" r:id="rId33" xr:uid="{6D8595D4-8777-4C2A-ABE4-7CCA1D7E6B75}"/>
     <hyperlink ref="D35" r:id="rId34" xr:uid="{12307831-960D-4E2E-B085-5ECB21D2D363}"/>
     <hyperlink ref="D37" r:id="rId35" xr:uid="{4EAE671C-030C-4AD6-AE64-677B413A81E9}"/>
+    <hyperlink ref="D38" r:id="rId36" xr:uid="{B30B39C6-830E-40C2-8EF1-1C3B2B63C615}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -2291,8 +2332,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEBF527-3FFE-4BB1-8739-F271562DFC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCCFC8A-621E-4B7B-8F82-F1008CBD4213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
   <si>
     <t>Date</t>
   </si>
@@ -655,6 +655,18 @@
   </si>
   <si>
     <t>yes, 3 ways first recurion , 2nd dp (n^3),3rd(n^2) dp with logic min(left,mid,right) ie (I,j-1),(i-1,j-1),(i-1,j) min value +1 will be the cur val if matrix[i][j]!='0'</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-labels/</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>No, just go through the logic</t>
+  </si>
+  <si>
+    <t>store last index of each occurance of a char, make use of these last occourance to calculate the ans (ie whenever your cur index greater the last , put len into out array and update fisrst and last) else update last</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1196,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,6 +2291,36 @@
       </c>
       <c r="J38" s="3" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B39" s="3">
+        <v>763</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2319,9 +2361,10 @@
     <hyperlink ref="D35" r:id="rId34" xr:uid="{12307831-960D-4E2E-B085-5ECB21D2D363}"/>
     <hyperlink ref="D37" r:id="rId35" xr:uid="{4EAE671C-030C-4AD6-AE64-677B413A81E9}"/>
     <hyperlink ref="D38" r:id="rId36" xr:uid="{B30B39C6-830E-40C2-8EF1-1C3B2B63C615}"/>
+    <hyperlink ref="D39" r:id="rId37" xr:uid="{930DBA4C-8AB8-4BC9-8C8E-B9CEBF6D02E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCCFC8A-621E-4B7B-8F82-F1008CBD4213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A496056-8C10-4372-99DF-EACBBDB9E62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -667,6 +667,30 @@
   </si>
   <si>
     <t>store last index of each occurance of a char, make use of these last occourance to calculate the ans (ie whenever your cur index greater the last , put len into out array and update fisrst and last) else update last</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pFjOqGsm1mQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dp -regex matching by vivakanand </t>
+  </si>
+  <si>
+    <t>yes , very goodunderstanding how to approach the solution form recusion optimization -&gt; memorization(top down) and dp(button top)</t>
+  </si>
+  <si>
+    <t>See the video - very good explaination of how to  solv regix problem</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M1q3Pzk2UXs</t>
+  </si>
+  <si>
+    <t>Find the sum of product of each subset</t>
+  </si>
+  <si>
+    <t>yes, Find pattern of Subset problem</t>
+  </si>
+  <si>
+    <t>brute force O(2^n * n)and O(n) approach uisng dp</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1220,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,6 +2345,62 @@
       </c>
       <c r="J39" s="3" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>44093</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9">
+        <v>3</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2362,9 +2442,11 @@
     <hyperlink ref="D37" r:id="rId35" xr:uid="{4EAE671C-030C-4AD6-AE64-677B413A81E9}"/>
     <hyperlink ref="D38" r:id="rId36" xr:uid="{B30B39C6-830E-40C2-8EF1-1C3B2B63C615}"/>
     <hyperlink ref="D39" r:id="rId37" xr:uid="{930DBA4C-8AB8-4BC9-8C8E-B9CEBF6D02E0}"/>
+    <hyperlink ref="D40" r:id="rId38" xr:uid="{0B352A67-7140-41A6-9F27-5C4CF24BDDE2}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{EECBF227-8FD2-47BE-9787-E053AF0EE396}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A496056-8C10-4372-99DF-EACBBDB9E62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC19522-D9F1-4E5D-8605-D1AB10F718F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -691,6 +691,15 @@
   </si>
   <si>
     <t>brute force O(2^n * n)and O(n) approach uisng dp</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursion and dp </t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1229,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="J42" sqref="A42:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,6 +2410,34 @@
       </c>
       <c r="J41" s="3" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC19522-D9F1-4E5D-8605-D1AB10F718F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D319F540-6FC5-4A1F-94A6-ED64392CE60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="9690" yWindow="1095" windowWidth="15375" windowHeight="7875" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -700,6 +700,36 @@
   </si>
   <si>
     <t xml:space="preserve">recursion and dp </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindromic-substrings/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iteration </t>
+  </si>
+  <si>
+    <t>Expend around the center</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/queue-reconstruction-by-height/</t>
+  </si>
+  <si>
+    <t>sorting and insertion</t>
+  </si>
+  <si>
+    <t>sort height in desc order and inc order of k then simply insert values</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dp </t>
+  </si>
+  <si>
+    <t>yes , see the logic behind dp</t>
+  </si>
+  <si>
+    <t>(no of 1 in 13) = (number of 1 in 8 + number of 1 in 5)</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1259,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="J42" sqref="A42:J42"/>
+    <sheetView tabSelected="1" topLeftCell="H42" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,6 +2468,94 @@
       </c>
       <c r="J42" s="3" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B44" s="3">
+        <v>406</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B45" s="3">
+        <v>338</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2481,9 +2599,12 @@
     <hyperlink ref="D39" r:id="rId37" xr:uid="{930DBA4C-8AB8-4BC9-8C8E-B9CEBF6D02E0}"/>
     <hyperlink ref="D40" r:id="rId38" xr:uid="{0B352A67-7140-41A6-9F27-5C4CF24BDDE2}"/>
     <hyperlink ref="D41" r:id="rId39" xr:uid="{EECBF227-8FD2-47BE-9787-E053AF0EE396}"/>
+    <hyperlink ref="D43" r:id="rId40" xr:uid="{F0A277E0-3656-4B7F-80BE-6D294D39D268}"/>
+    <hyperlink ref="D44" r:id="rId41" xr:uid="{875FF014-293B-4F7A-BE56-C5ECF5D855A3}"/>
+    <hyperlink ref="D45" r:id="rId42" xr:uid="{464A782A-CE6D-41F3-80F2-B17E99E10D8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D319F540-6FC5-4A1F-94A6-ED64392CE60E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26C9E4-90A9-4342-BFBD-0D784EEF60F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="1095" windowWidth="15375" windowHeight="7875" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -730,6 +730,18 @@
   </si>
   <si>
     <t>(no of 1 in 13) = (number of 1 in 8 + number of 1 in 5)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
+  </si>
+  <si>
+    <t>referece , dfs,bfs</t>
+  </si>
+  <si>
+    <t>No, just see the second way of solving qus if dublicates are allowed</t>
+  </si>
+  <si>
+    <t>do dfs store [original,cloned] as a value for stack</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1271,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H42" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,6 +2568,36 @@
       </c>
       <c r="J45" s="3" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1379</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
+        <v>2</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2602,9 +2644,10 @@
     <hyperlink ref="D43" r:id="rId40" xr:uid="{F0A277E0-3656-4B7F-80BE-6D294D39D268}"/>
     <hyperlink ref="D44" r:id="rId41" xr:uid="{875FF014-293B-4F7A-BE56-C5ECF5D855A3}"/>
     <hyperlink ref="D45" r:id="rId42" xr:uid="{464A782A-CE6D-41F3-80F2-B17E99E10D8C}"/>
+    <hyperlink ref="D46" r:id="rId43" xr:uid="{460CDF49-6596-4B00-A736-2AF3BCF26C2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26C9E4-90A9-4342-BFBD-0D784EEF60F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358CD06-BCDF-4977-99ED-6861BBEC6EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="234">
   <si>
     <t>Date</t>
   </si>
@@ -742,6 +742,27 @@
   </si>
   <si>
     <t>do dfs store [original,cloned] as a value for stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-nodes-with-even-valued-grandparent/</t>
+  </si>
+  <si>
+    <t>No,See how I approached the problem</t>
+  </si>
+  <si>
+    <t>Simple recursion, see if current node value is even , add sum of all the grad child values else mode to the left and right child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#no of possible square that end at point i,j will
+#be equal to the min of max possible square out of
+# square ending at i-1,j-1 &amp; i-1,j &amp; i,j-1
+                    </t>
+  </si>
+  <si>
+    <t>yes , 1 time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/submissions/</t>
   </si>
 </sst>
 </file>
@@ -1271,10 +1292,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,6 +2619,66 @@
       </c>
       <c r="J46" s="3" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1315</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1277</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2645,9 +2726,11 @@
     <hyperlink ref="D44" r:id="rId41" xr:uid="{875FF014-293B-4F7A-BE56-C5ECF5D855A3}"/>
     <hyperlink ref="D45" r:id="rId42" xr:uid="{464A782A-CE6D-41F3-80F2-B17E99E10D8C}"/>
     <hyperlink ref="D46" r:id="rId43" xr:uid="{460CDF49-6596-4B00-A736-2AF3BCF26C2C}"/>
+    <hyperlink ref="D47" r:id="rId44" xr:uid="{37D5AE9F-5A4E-4575-B05F-7E0B6FE25E6E}"/>
+    <hyperlink ref="D48" r:id="rId45" xr:uid="{43D282AA-A091-430E-9851-CACFAF3DEE5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B358CD06-BCDF-4977-99ED-6861BBEC6EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E8E516-EC19-45AC-AF2A-62EB68F97F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="237">
   <si>
     <t>Date</t>
   </si>
@@ -763,6 +763,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/submissions/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>yes,many time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use dict , prefix sum </t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1301,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:J48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,6 +2688,34 @@
       </c>
       <c r="J48" s="3" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B49" s="3">
+        <v>560</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2728,9 +2765,10 @@
     <hyperlink ref="D46" r:id="rId43" xr:uid="{460CDF49-6596-4B00-A736-2AF3BCF26C2C}"/>
     <hyperlink ref="D47" r:id="rId44" xr:uid="{37D5AE9F-5A4E-4575-B05F-7E0B6FE25E6E}"/>
     <hyperlink ref="D48" r:id="rId45" xr:uid="{43D282AA-A091-430E-9851-CACFAF3DEE5F}"/>
+    <hyperlink ref="D49" r:id="rId46" xr:uid="{74EA67E5-3928-41AC-A7B5-A2FFDEC0CFDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E8E516-EC19-45AC-AF2A-62EB68F97F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540BFF14-C70B-4D62-BD26-6CAE4787ED8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="240">
   <si>
     <t>Date</t>
   </si>
@@ -772,6 +772,15 @@
   </si>
   <si>
     <t xml:space="preserve">use dict , prefix sum </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum/</t>
+  </si>
+  <si>
+    <t>using two loop + binary search so O(N^3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are actually two approach -&gt; use 3 loop + 1 binary search to find remaining elemnet from sorted array  2 approach) use two loop and use bnary search to find the remaining sum </t>
   </si>
 </sst>
 </file>
@@ -1303,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,10 +2786,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,6 +3361,34 @@
         <v>195</v>
       </c>
     </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>44101</v>
+      </c>
+      <c r="B21" s="22">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22">
+        <v>1</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{FDAB4594-DE12-4E39-A067-40D703C929AD}"/>
@@ -3372,6 +3409,7 @@
     <hyperlink ref="D18" r:id="rId16" xr:uid="{4311EB59-FC68-4873-B270-DC52EA52E001}"/>
     <hyperlink ref="D19" r:id="rId17" xr:uid="{B1DC559A-5FC1-42CD-8AC2-76C41B948E79}"/>
     <hyperlink ref="D20" r:id="rId18" xr:uid="{62B445FA-D448-4003-8287-F4E89C4285F6}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{E9B44399-6542-42E6-B3A2-193EFD03F92C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540BFF14-C70B-4D62-BD26-6CAE4787ED8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C1785-B8BD-4AA6-AFA1-FA4DFD265641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions Tracking Sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="246">
   <si>
     <t>Date</t>
   </si>
@@ -781,6 +781,24 @@
   </si>
   <si>
     <t xml:space="preserve">there are actually two approach -&gt; use 3 loop + 1 binary search to find remaining elemnet from sorted array  2 approach) use two loop and use bnary search to find the remaining sum </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/submissions/</t>
+  </si>
+  <si>
+    <t>try to make dp[i][n/2] as true (which represent we are having i elements and n/2 sum is possible )</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack </t>
+  </si>
+  <si>
+    <t>yes, see what is the logic</t>
+  </si>
+  <si>
+    <t>remember the order we are inserting node into stack and remember we need to make left and right node as None after access its left and right child</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1328,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="F45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,6 +2743,66 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B50" s="3">
+        <v>416</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B51" s="3">
+        <v>114</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2775,9 +2853,11 @@
     <hyperlink ref="D47" r:id="rId44" xr:uid="{37D5AE9F-5A4E-4575-B05F-7E0B6FE25E6E}"/>
     <hyperlink ref="D48" r:id="rId45" xr:uid="{43D282AA-A091-430E-9851-CACFAF3DEE5F}"/>
     <hyperlink ref="D49" r:id="rId46" xr:uid="{74EA67E5-3928-41AC-A7B5-A2FFDEC0CFDB}"/>
+    <hyperlink ref="D50" r:id="rId47" xr:uid="{512603A2-C7A7-4CE3-BAFE-CF6AF23DC457}"/>
+    <hyperlink ref="D51" r:id="rId48" xr:uid="{0E9F7A60-CC99-4C6C-9B2C-6377C44E8F87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -2788,7 +2868,7 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/tracksheet.xlsx
+++ b/tracksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C1785-B8BD-4AA6-AFA1-FA4DFD265641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D369C9-F6A9-48E0-9773-35B13B678788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
